--- a/Financial statement Aanlysis/Tesla Financial Statement Analysis/Tesla Finacial Statement Analysis.xlsx
+++ b/Financial statement Aanlysis/Tesla Financial Statement Analysis/Tesla Finacial Statement Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -138,6 +138,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -436,13 +437,13 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="12.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="20.26953125" customWidth="1"/>
     <col min="5" max="5" width="21.54296875" bestFit="1" customWidth="1"/>
@@ -552,14 +553,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.90625" customWidth="1"/>
@@ -690,6 +691,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="2"/>
+      <c r="B5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -700,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
